--- a/Sigmaa005/List of tradable instruments.xlsx
+++ b/Sigmaa005/List of tradable instruments.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gly19\Dropbox\GU\1.Investment\4. Alphas (new)\17.Extract_Rollyield\0.Research\VIX\dat\Sigmaa005\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>langyu gu</author>
   </authors>
   <commentList>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
   <si>
     <t>Asset Class</t>
   </si>
@@ -283,20 +283,175 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ETF</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>Required Margin</t>
+  </si>
+  <si>
+    <t>LU0274211480</t>
+  </si>
+  <si>
+    <t>IB Ticker</t>
+  </si>
+  <si>
+    <t>ISIN</t>
+  </si>
+  <si>
+    <t>IB Symbol</t>
+  </si>
+  <si>
+    <t>XDAX GY Equity</t>
+  </si>
+  <si>
+    <t>Currrency</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>DBXD</t>
+  </si>
+  <si>
+    <t>ETF Conid</t>
+  </si>
+  <si>
+    <t>CFD Conid</t>
+  </si>
+  <si>
+    <t>Commission</t>
+  </si>
+  <si>
+    <t>US78462F1030</t>
+  </si>
+  <si>
+    <t>SPY US Equity</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>FR0007052782</t>
+  </si>
+  <si>
+    <t>CAC FP Equity</t>
+  </si>
+  <si>
+    <t>HK2833027330</t>
+  </si>
+  <si>
+    <t>2833 HK Equity</t>
+  </si>
+  <si>
+    <t>1.25X</t>
+  </si>
+  <si>
+    <t>5std</t>
+  </si>
+  <si>
+    <t>Maintenance Margin</t>
+  </si>
+  <si>
+    <t>Initial Margin</t>
+  </si>
+  <si>
+    <t>Minimum Margin</t>
+  </si>
+  <si>
+    <t>IGLT</t>
+  </si>
+  <si>
+    <t>IE00B1FZSB30</t>
+  </si>
+  <si>
+    <t>IGLT LN Equity</t>
+  </si>
+  <si>
+    <t>Minimum Commission</t>
+  </si>
+  <si>
+    <t>XG71 GY Equity</t>
+  </si>
+  <si>
+    <t>LU0730820569</t>
+  </si>
+  <si>
+    <t>XG71</t>
+  </si>
+  <si>
+    <t>USO</t>
+  </si>
+  <si>
+    <t>US91232N1081</t>
+  </si>
+  <si>
+    <t>USO US Equity</t>
+  </si>
+  <si>
+    <t>$1</t>
+  </si>
+  <si>
+    <t>US78463V1070</t>
+  </si>
+  <si>
+    <t>GLD US Equity</t>
+  </si>
+  <si>
+    <t>GLD</t>
+  </si>
+  <si>
+    <t>JJC</t>
+  </si>
+  <si>
+    <t>US06739F1012</t>
+  </si>
+  <si>
+    <t>JJC US Equity</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>JO US Equity</t>
+  </si>
+  <si>
+    <t>US06739H2976</t>
+  </si>
+  <si>
+    <t>HKD18</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>IEF</t>
+  </si>
+  <si>
+    <t>IEF US Equity</t>
+  </si>
+  <si>
+    <t>US4642874402</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="7">
+    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,8 +496,34 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,8 +548,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -907,6 +1100,41 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF9C9A9C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF9C9A9C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF9C9A9C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF9C9A9C"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -915,7 +1143,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1166,6 +1394,64 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,6 +1480,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1477,53 +1766,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
-    <col min="17" max="17" width="0.85546875" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.46875" customWidth="1"/>
+    <col min="2" max="2" width="17.75390625" customWidth="1"/>
+    <col min="3" max="3" width="14.2578125" customWidth="1"/>
+    <col min="4" max="6" width="11.97265625" customWidth="1"/>
+    <col min="7" max="7" width="22.1953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.2578125" customWidth="1"/>
+    <col min="9" max="10" width="20.71484375" customWidth="1"/>
+    <col min="11" max="11" width="19.234375" customWidth="1"/>
+    <col min="12" max="12" width="23.5390625" customWidth="1"/>
+    <col min="13" max="13" width="18.0234375" customWidth="1"/>
+    <col min="14" max="14" width="13.5859375" customWidth="1"/>
+    <col min="15" max="15" width="19.1015625" customWidth="1"/>
+    <col min="16" max="16" width="14.796875" customWidth="1"/>
+    <col min="17" max="17" width="0.8046875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="14.796875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="20.71484375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="15.6015625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="27.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="26.76953125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="19.7734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="1.8828125" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="16.54296875" customWidth="1"/>
+    <col min="30" max="30" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.9296875" customWidth="1"/>
+    <col min="32" max="32" width="22.05859375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.5859375" customWidth="1"/>
+    <col min="34" max="34" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.27734375" customWidth="1"/>
+    <col min="36" max="36" width="17.62109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q1" s="107"/>
-      <c r="R1" s="117" t="s">
+      <c r="R1" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
+      <c r="S1" s="157"/>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="Y1" s="158" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="158"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -1590,9 +1901,48 @@
       <c r="W2" s="77" t="s">
         <v>56</v>
       </c>
+      <c r="Y2" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z2" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC2" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD2" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF2" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG2" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH2" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI2" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ2" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" s="78" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A3" s="148" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1617,32 +1967,32 @@
         <v>50</v>
       </c>
       <c r="I3" s="28">
-        <f ca="1">G3*H3*F3</f>
+        <f>G3*H3*F3</f>
         <v>127475</v>
       </c>
       <c r="J3" s="31">
         <v>0.25</v>
       </c>
       <c r="K3" s="60">
-        <f ca="1">J3/G3</f>
+        <f>J3/G3</f>
         <v>9.8058442831927827E-5</v>
       </c>
       <c r="L3" s="31">
         <v>2.04</v>
       </c>
       <c r="M3" s="60">
-        <f ca="1">L3/I3</f>
+        <f>L3/I3</f>
         <v>1.6003137870170622E-5</v>
       </c>
       <c r="N3" s="74">
         <v>0.13800000000000001</v>
       </c>
       <c r="O3" s="75">
-        <f ca="1">500000*4/12*0.2/N3</f>
+        <f>500000*4/12*0.2/N3</f>
         <v>241545.89371980677</v>
       </c>
       <c r="P3" s="76">
-        <f ca="1">FLOOR(O3/I3,1)</f>
+        <f>FLOOR(O3/I3,1)</f>
         <v>1</v>
       </c>
       <c r="Q3" s="25"/>
@@ -1650,7 +2000,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="28">
-        <f ca="1">G3*R3*F3</f>
+        <f>G3*R3*F3</f>
         <v>25495</v>
       </c>
       <c r="T3" s="90"/>
@@ -1658,16 +2008,55 @@
         <v>0.32</v>
       </c>
       <c r="V3" s="104">
-        <f ca="1">U3*H3/R3</f>
+        <f>U3*H3/R3</f>
         <v>1.6</v>
       </c>
       <c r="W3" s="75">
-        <f ca="1">O3/H3*R3</f>
+        <f>O3/H3*R3</f>
         <v>48309.178743961354</v>
       </c>
+      <c r="Y3" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB3" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3" s="133">
+        <v>756733</v>
+      </c>
+      <c r="AD3" s="116">
+        <f>64390/100000</f>
+        <v>0.64390000000000003</v>
+      </c>
+      <c r="AE3" s="120">
+        <f>5/100000</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="AF3" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG3" s="143">
+        <v>134770228</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ3" s="144">
+        <v>0.1</v>
+      </c>
+      <c r="AK3" s="98"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4" s="149"/>
       <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
@@ -1690,33 +2079,33 @@
         <v>25</v>
       </c>
       <c r="I4" s="29">
-        <f ca="1">G4*H4*F4</f>
+        <f>G4*H4*F4</f>
         <v>383573.77499999997</v>
       </c>
       <c r="J4" s="32">
         <v>0.5</v>
       </c>
       <c r="K4" s="61">
-        <f t="shared" ref="K4:K14" ca="1" si="0">J4/G4</f>
+        <f t="shared" ref="K4:K14" si="0">J4/G4</f>
         <v>3.8519317437695001E-5</v>
       </c>
       <c r="L4" s="32">
-        <f ca="1">2*F4</f>
+        <f>2*F4</f>
         <v>2.3639999999999999</v>
       </c>
       <c r="M4" s="61">
-        <f t="shared" ref="M4:M15" ca="1" si="1">L4/I4</f>
+        <f t="shared" ref="M4:M15" si="1">L4/I4</f>
         <v>6.1630907900312006E-6</v>
       </c>
       <c r="N4" s="68">
         <v>0.17399999999999999</v>
       </c>
       <c r="O4" s="24">
-        <f t="shared" ref="O4:O15" ca="1" si="2">500000*4/12*0.2/N4</f>
+        <f t="shared" ref="O4:O15" si="2">500000*4/12*0.2/N4</f>
         <v>191570.88122605367</v>
       </c>
       <c r="P4" s="69">
-        <f t="shared" ref="P4:P15" ca="1" si="3">FLOOR(O4/I4,1)</f>
+        <f t="shared" ref="P4:P15" si="3">FLOOR(O4/I4,1)</f>
         <v>0</v>
       </c>
       <c r="Q4" s="25"/>
@@ -1724,25 +2113,63 @@
         <v>1</v>
       </c>
       <c r="S4" s="29">
-        <f ca="1">G4*R4*F4</f>
+        <f>G4*R4*F4</f>
         <v>15342.950999999999</v>
       </c>
       <c r="T4" s="92"/>
       <c r="U4" s="100">
-        <f ca="1">0.24*F4</f>
+        <f>0.24*F4</f>
         <v>0.28367999999999999</v>
       </c>
       <c r="V4" s="105">
-        <f ca="1">U4*H4/R4</f>
+        <f>U4*H4/R4</f>
         <v>7.0919999999999996</v>
       </c>
       <c r="W4" s="24">
-        <f t="shared" ref="W4:W15" ca="1" si="4">O4/H4*R4</f>
+        <f t="shared" ref="W4:W15" si="4">O4/H4*R4</f>
         <v>7662.8352490421466</v>
       </c>
+      <c r="Y4" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z4" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB4" s="130" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC4" s="134">
+        <v>42751161</v>
+      </c>
+      <c r="AD4" s="111">
+        <f>4669/12814</f>
+        <v>0.36436709848603088</v>
+      </c>
+      <c r="AE4" s="121">
+        <v>1E-3</v>
+      </c>
+      <c r="AF4" s="139">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="132">
+        <v>290654659</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ4" s="114">
+        <v>0.1</v>
+      </c>
+      <c r="AK4" s="93"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5" s="149"/>
       <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
@@ -1765,33 +2192,33 @@
         <v>10</v>
       </c>
       <c r="I5" s="29">
-        <f ca="1">G5*H5*F5</f>
+        <f>G5*H5*F5</f>
         <v>63254.729999999996</v>
       </c>
       <c r="J5" s="32">
         <v>0.5</v>
       </c>
       <c r="K5" s="61">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>9.3431748108007095E-5</v>
       </c>
       <c r="L5" s="32">
-        <f ca="1">2*F5</f>
+        <f>2*F5</f>
         <v>2.3639999999999999</v>
       </c>
       <c r="M5" s="61">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>3.7372699243202844E-5</v>
       </c>
       <c r="N5" s="68">
         <v>0.189</v>
       </c>
       <c r="O5" s="24">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>176366.84303350971</v>
       </c>
       <c r="P5" s="69">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q5" s="25"/>
@@ -1799,25 +2226,62 @@
         <v>1</v>
       </c>
       <c r="S5" s="29">
-        <f ca="1">G5*R5*F5</f>
+        <f>G5*R5*F5</f>
         <v>6325.473</v>
       </c>
       <c r="T5" s="92"/>
       <c r="U5" s="100">
-        <f ca="1">0.3*F5</f>
+        <f>0.3*F5</f>
         <v>0.35459999999999997</v>
       </c>
       <c r="V5" s="105">
-        <f t="shared" ref="V5:V7" ca="1" si="5">U5*H5/R5</f>
+        <f t="shared" ref="V5:V7" si="5">U5*H5/R5</f>
         <v>3.5459999999999998</v>
       </c>
       <c r="W5" s="24">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>17636.684303350972</v>
       </c>
+      <c r="Y5" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA5" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB5" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC5" s="134">
+        <v>165198503</v>
+      </c>
+      <c r="AD5" s="114">
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="AE5" s="121">
+        <v>1E-3</v>
+      </c>
+      <c r="AF5" s="139">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="132">
+        <v>290652011</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ5" s="114">
+        <v>0.1</v>
+      </c>
+      <c r="AK5" s="93"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" s="149"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1890,9 +2354,22 @@
         <f t="shared" si="4"/>
         <v>165425.97187758479</v>
       </c>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="110"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="134"/>
+      <c r="AD6" s="115"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="139"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="114"/>
+      <c r="AK6" s="93"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="150"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1965,9 +2442,48 @@
         <f t="shared" si="4"/>
         <v>18018.018018018021</v>
       </c>
+      <c r="Y7" s="146">
+        <v>2833</v>
+      </c>
+      <c r="Z7" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA7" s="124" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB7" s="131" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC7" s="135">
+        <v>42474938</v>
+      </c>
+      <c r="AD7" s="125">
+        <f>37167/200000</f>
+        <v>0.185835</v>
+      </c>
+      <c r="AE7" s="126">
+        <f>160/200000</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="AF7" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG7" s="132">
+        <v>290654600</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ7" s="114">
+        <v>0.1</v>
+      </c>
+      <c r="AK7" s="93"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="111" t="s">
+    <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="151" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="54" t="s">
@@ -2033,9 +2549,48 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="Y8" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z8" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA8" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB8" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC8" s="147">
+        <v>15547844</v>
+      </c>
+      <c r="AD8" s="111">
+        <f>628/2505</f>
+        <v>0.2506986027944112</v>
+      </c>
+      <c r="AE8" s="127">
+        <f>5/25050</f>
+        <v>1.996007984031936E-4</v>
+      </c>
+      <c r="AF8" s="140" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG8" s="147">
+        <v>134770775</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ8" s="114">
+        <v>0.1</v>
+      </c>
+      <c r="AK8" s="93"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="112"/>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9" s="152"/>
       <c r="B9" s="56" t="s">
         <v>31</v>
       </c>
@@ -2100,9 +2655,48 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="Y9" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z9" s="112" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA9" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB9" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC9" s="134">
+        <v>42725180</v>
+      </c>
+      <c r="AD9" s="111">
+        <f>53407/100000</f>
+        <v>0.53407000000000004</v>
+      </c>
+      <c r="AE9" s="127">
+        <f>29/100000</f>
+        <v>2.9E-4</v>
+      </c>
+      <c r="AF9" s="141">
+        <v>6</v>
+      </c>
+      <c r="AG9" s="134">
+        <v>290654651</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ9" s="114">
+        <v>0.1</v>
+      </c>
+      <c r="AK9" s="93"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="113"/>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10" s="153"/>
       <c r="B10" s="57" t="s">
         <v>35</v>
       </c>
@@ -2167,8 +2761,40 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="Y10" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z10" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA10" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB10" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC10" s="134">
+        <v>106659028</v>
+      </c>
+      <c r="AD10" s="111">
+        <f>277/238</f>
+        <v>1.1638655462184875</v>
+      </c>
+      <c r="AE10" s="128">
+        <v>1E-3</v>
+      </c>
+      <c r="AF10" s="139">
+        <v>4</v>
+      </c>
+      <c r="AG10" s="92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="93"/>
     </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="82" t="s">
         <v>34</v>
@@ -2234,9 +2860,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="140"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="93"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="114" t="s">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12" s="154" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2306,9 +2945,48 @@
         <f t="shared" si="4"/>
         <v>22371.364653243851</v>
       </c>
+      <c r="Y12" s="117" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z12" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA12" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB12" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC12" s="134">
+        <v>38590758</v>
+      </c>
+      <c r="AD12" s="111">
+        <f>27169/108000</f>
+        <v>0.2515648148148148</v>
+      </c>
+      <c r="AE12" s="128">
+        <f>45/108000</f>
+        <v>4.1666666666666669E-4</v>
+      </c>
+      <c r="AF12" s="140" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG12" s="134">
+        <v>134771093</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ12" s="114">
+        <v>0.1</v>
+      </c>
+      <c r="AK12" s="93"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13" s="155"/>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2376,9 +3054,48 @@
         <f t="shared" si="4"/>
         <v>18726.591760299627</v>
       </c>
+      <c r="Y13" s="117" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z13" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA13" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB13" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC13" s="132">
+        <v>51529211</v>
+      </c>
+      <c r="AD13" s="111">
+        <f>30254/100000</f>
+        <v>0.30253999999999998</v>
+      </c>
+      <c r="AE13" s="129">
+        <f>4.5/100000</f>
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="AF13" s="140" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG13" s="134">
+        <v>134771924</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ13" s="114">
+        <v>0.1</v>
+      </c>
+      <c r="AK13" s="93"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A14" s="155"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2442,9 +3159,40 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="Y14" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z14" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA14" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB14" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC14" s="134">
+        <v>46943351</v>
+      </c>
+      <c r="AD14" s="111">
+        <f>8848/30000</f>
+        <v>0.29493333333333333</v>
+      </c>
+      <c r="AE14" s="129">
+        <f>4.5/30000</f>
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="AF14" s="140" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="93"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="116"/>
+    <row r="15" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="156"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
@@ -2508,16 +3256,48 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="Y15" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z15" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB15" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC15" s="136">
+        <v>52175837</v>
+      </c>
+      <c r="AD15" s="137">
+        <f>40855/100000</f>
+        <v>0.40855000000000002</v>
+      </c>
+      <c r="AE15" s="138">
+        <f>45/100000</f>
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="AF15" s="142" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="95"/>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J18" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="R1:W1"/>
+    <mergeCell ref="Y1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Sigmaa005/List of tradable instruments.xlsx
+++ b/Sigmaa005/List of tradable instruments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>langyu gu</author>
   </authors>
   <commentList>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="Q2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="Y2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="139">
   <si>
     <t>Asset Class</t>
   </si>
@@ -436,12 +437,75 @@
   </si>
   <si>
     <t>US4642874402</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>CME</t>
+  </si>
+  <si>
+    <t>EUREX</t>
+  </si>
+  <si>
+    <t>EURONEXT</t>
+  </si>
+  <si>
+    <t>Quandl Exchange Code</t>
+  </si>
+  <si>
+    <t>LIFFE/FCE</t>
+  </si>
+  <si>
+    <t>OSE/NK225M_</t>
+  </si>
+  <si>
+    <t>HKEX/MHI</t>
+  </si>
+  <si>
+    <t>CME/TY</t>
+  </si>
+  <si>
+    <t>LIFFE/R</t>
+  </si>
+  <si>
+    <t>EUREX/FGBL</t>
+  </si>
+  <si>
+    <t>OSE/JGBL</t>
+  </si>
+  <si>
+    <t>CME/CL</t>
+  </si>
+  <si>
+    <t>CME/MGC</t>
+  </si>
+  <si>
+    <t>CME/HG</t>
+  </si>
+  <si>
+    <t>ICE/KC</t>
+  </si>
+  <si>
+    <t>CME/ES</t>
+  </si>
+  <si>
+    <t>EUREX/FDAX</t>
+  </si>
+  <si>
+    <t>OSE</t>
+  </si>
+  <si>
+    <t>HKEX</t>
+  </si>
+  <si>
+    <t>ICE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -561,7 +625,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1137,13 +1201,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1451,6 +1566,21 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1766,75 +1896,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomRight" activeCell="AF19" sqref="AF19"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.46875" customWidth="1"/>
-    <col min="2" max="2" width="17.75390625" customWidth="1"/>
-    <col min="3" max="3" width="14.2578125" customWidth="1"/>
-    <col min="4" max="6" width="11.97265625" customWidth="1"/>
-    <col min="7" max="7" width="22.1953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.2578125" customWidth="1"/>
-    <col min="9" max="10" width="20.71484375" customWidth="1"/>
-    <col min="11" max="11" width="19.234375" customWidth="1"/>
-    <col min="12" max="12" width="23.5390625" customWidth="1"/>
-    <col min="13" max="13" width="18.0234375" customWidth="1"/>
-    <col min="14" max="14" width="13.5859375" customWidth="1"/>
-    <col min="15" max="15" width="19.1015625" customWidth="1"/>
-    <col min="16" max="16" width="14.796875" customWidth="1"/>
-    <col min="17" max="17" width="0.8046875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="14.796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="20.71484375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="15.6015625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="27.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="26.76953125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="19.7734375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="1.8828125" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="16.54296875" customWidth="1"/>
-    <col min="30" max="30" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.9296875" customWidth="1"/>
-    <col min="32" max="32" width="22.05859375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.5859375" customWidth="1"/>
-    <col min="34" max="34" width="20.58203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.27734375" customWidth="1"/>
-    <col min="36" max="36" width="17.62109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="0.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="14.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="20.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="15.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="27.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="26.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="19.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="1.85546875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="16.5703125" customWidth="1"/>
+    <col min="32" max="32" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15" customWidth="1"/>
+    <col min="34" max="34" width="22" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.5703125" customWidth="1"/>
+    <col min="36" max="36" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.28515625" customWidth="1"/>
+    <col min="38" max="38" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="Q1" s="107"/>
-      <c r="R1" s="157" t="s">
+    <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="107"/>
+      <c r="T1" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="157"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="157"/>
-      <c r="V1" s="157"/>
-      <c r="W1" s="157"/>
-      <c r="Y1" s="158" t="s">
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="AA1" s="163" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="158"/>
-      <c r="AB1" s="158"/>
-      <c r="AC1" s="158"/>
-      <c r="AD1" s="158"/>
-      <c r="AE1" s="158"/>
-      <c r="AF1" s="158"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="163"/>
+      <c r="AH1" s="163"/>
     </row>
-    <row r="2" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -1850,99 +1982,105 @@
       <c r="E2" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="I2" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="J2" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="K2" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="M2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="N2" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="O2" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="P2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="77" t="s">
+      <c r="Q2" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="78" t="s">
+      <c r="R2" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="R2" s="78" t="s">
+      <c r="T2" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="78" t="s">
+      <c r="U2" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="80" t="s">
+      <c r="V2" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="89" t="s">
+      <c r="W2" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="89" t="s">
+      <c r="X2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="77" t="s">
+      <c r="Y2" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="89" t="s">
+      <c r="AA2" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" s="108" t="s">
+      <c r="AB2" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="108" t="s">
+      <c r="AC2" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="109" t="s">
+      <c r="AD2" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="AC2" s="89" t="s">
+      <c r="AE2" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="AD2" s="108" t="s">
+      <c r="AF2" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="108" t="s">
+      <c r="AG2" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="AF2" s="81" t="s">
+      <c r="AH2" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AI2" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AH2" s="77" t="s">
+      <c r="AJ2" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="77" t="s">
+      <c r="AK2" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="AJ2" s="77" t="s">
+      <c r="AL2" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="AK2" s="78" t="s">
+      <c r="AM2" s="78" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A3" s="148" t="s">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="153" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1957,106 +2095,112 @@
       <c r="E3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="148" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="148" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="21">
         <v>1</v>
       </c>
-      <c r="G3" s="35">
+      <c r="I3" s="35">
         <v>2549.5</v>
       </c>
-      <c r="H3" s="39">
+      <c r="J3" s="39">
         <v>50</v>
       </c>
-      <c r="I3" s="28">
-        <f>G3*H3*F3</f>
+      <c r="K3" s="28">
+        <f>I3*J3*H3</f>
         <v>127475</v>
       </c>
-      <c r="J3" s="31">
+      <c r="L3" s="31">
         <v>0.25</v>
-      </c>
-      <c r="K3" s="60">
-        <f>J3/G3</f>
-        <v>9.8058442831927827E-5</v>
-      </c>
-      <c r="L3" s="31">
-        <v>2.04</v>
       </c>
       <c r="M3" s="60">
         <f>L3/I3</f>
+        <v>9.8058442831927827E-5</v>
+      </c>
+      <c r="N3" s="31">
+        <v>2.04</v>
+      </c>
+      <c r="O3" s="60">
+        <f>N3/K3</f>
         <v>1.6003137870170622E-5</v>
       </c>
-      <c r="N3" s="74">
+      <c r="P3" s="74">
         <v>0.13800000000000001</v>
       </c>
-      <c r="O3" s="75">
-        <f>500000*4/12*0.2/N3</f>
+      <c r="Q3" s="75">
+        <f>500000*4/12*0.2/P3</f>
         <v>241545.89371980677</v>
       </c>
-      <c r="P3" s="76">
-        <f>FLOOR(O3/I3,1)</f>
+      <c r="R3" s="76">
+        <f>FLOOR(Q3/K3,1)</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="39">
+      <c r="S3" s="25"/>
+      <c r="T3" s="39">
         <v>10</v>
       </c>
-      <c r="S3" s="28">
-        <f>G3*R3*F3</f>
+      <c r="U3" s="28">
+        <f>I3*T3*H3</f>
         <v>25495</v>
       </c>
-      <c r="T3" s="90"/>
-      <c r="U3" s="99">
+      <c r="V3" s="90"/>
+      <c r="W3" s="99">
         <v>0.32</v>
       </c>
-      <c r="V3" s="104">
-        <f>U3*H3/R3</f>
+      <c r="X3" s="104">
+        <f>W3*J3/T3</f>
         <v>1.6</v>
       </c>
-      <c r="W3" s="75">
-        <f>O3/H3*R3</f>
+      <c r="Y3" s="75">
+        <f>Q3/J3*T3</f>
         <v>48309.178743961354</v>
       </c>
-      <c r="Y3" s="54" t="s">
+      <c r="AA3" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AB3" s="91" t="s">
+      <c r="AD3" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="AC3" s="133">
+      <c r="AE3" s="133">
         <v>756733</v>
       </c>
-      <c r="AD3" s="116">
+      <c r="AF3" s="116">
         <f>64390/100000</f>
         <v>0.64390000000000003</v>
       </c>
-      <c r="AE3" s="120">
+      <c r="AG3" s="120">
         <f>5/100000</f>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="AF3" s="120" t="s">
+      <c r="AH3" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="AG3" s="143">
+      <c r="AI3" s="143">
         <v>134770228</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AK3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AJ3" s="144">
+      <c r="AL3" s="144">
         <v>0.1</v>
       </c>
-      <c r="AK3" s="98"/>
+      <c r="AM3" s="98"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A4" s="149"/>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="154"/>
       <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
@@ -2069,107 +2213,113 @@
       <c r="E4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="149" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="149" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="22">
         <v>1.1819999999999999</v>
       </c>
-      <c r="G4" s="36">
+      <c r="I4" s="36">
         <v>12980.5</v>
       </c>
-      <c r="H4" s="40">
+      <c r="J4" s="40">
         <v>25</v>
       </c>
-      <c r="I4" s="29">
-        <f>G4*H4*F4</f>
+      <c r="K4" s="29">
+        <f>I4*J4*H4</f>
         <v>383573.77499999997</v>
       </c>
-      <c r="J4" s="32">
+      <c r="L4" s="32">
         <v>0.5</v>
       </c>
-      <c r="K4" s="61">
-        <f t="shared" ref="K4:K14" si="0">J4/G4</f>
+      <c r="M4" s="61">
+        <f t="shared" ref="M4:M14" si="0">L4/I4</f>
         <v>3.8519317437695001E-5</v>
       </c>
-      <c r="L4" s="32">
-        <f>2*F4</f>
+      <c r="N4" s="32">
+        <f>2*H4</f>
         <v>2.3639999999999999</v>
       </c>
-      <c r="M4" s="61">
-        <f t="shared" ref="M4:M15" si="1">L4/I4</f>
+      <c r="O4" s="61">
+        <f t="shared" ref="O4:O15" si="1">N4/K4</f>
         <v>6.1630907900312006E-6</v>
       </c>
-      <c r="N4" s="68">
+      <c r="P4" s="68">
         <v>0.17399999999999999</v>
       </c>
-      <c r="O4" s="24">
-        <f t="shared" ref="O4:O15" si="2">500000*4/12*0.2/N4</f>
+      <c r="Q4" s="24">
+        <f t="shared" ref="Q4:Q15" si="2">500000*4/12*0.2/P4</f>
         <v>191570.88122605367</v>
       </c>
-      <c r="P4" s="69">
-        <f t="shared" ref="P4:P15" si="3">FLOOR(O4/I4,1)</f>
+      <c r="R4" s="69">
+        <f t="shared" ref="R4:R15" si="3">FLOOR(Q4/K4,1)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="40">
+      <c r="S4" s="25"/>
+      <c r="T4" s="40">
         <v>1</v>
       </c>
-      <c r="S4" s="29">
-        <f>G4*R4*F4</f>
+      <c r="U4" s="29">
+        <f>I4*T4*H4</f>
         <v>15342.950999999999</v>
       </c>
-      <c r="T4" s="92"/>
-      <c r="U4" s="100">
-        <f>0.24*F4</f>
+      <c r="V4" s="92"/>
+      <c r="W4" s="100">
+        <f>0.24*H4</f>
         <v>0.28367999999999999</v>
       </c>
-      <c r="V4" s="105">
-        <f>U4*H4/R4</f>
+      <c r="X4" s="105">
+        <f>W4*J4/T4</f>
         <v>7.0919999999999996</v>
       </c>
-      <c r="W4" s="24">
-        <f t="shared" ref="W4:W15" si="4">O4/H4*R4</f>
+      <c r="Y4" s="24">
+        <f t="shared" ref="Y4:Y15" si="4">Q4/J4*T4</f>
         <v>7662.8352490421466</v>
       </c>
-      <c r="Y4" s="117" t="s">
+      <c r="AA4" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="Z4" s="112" t="s">
+      <c r="AB4" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AB4" s="130" t="s">
+      <c r="AD4" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="AC4" s="134">
+      <c r="AE4" s="134">
         <v>42751161</v>
       </c>
-      <c r="AD4" s="111">
+      <c r="AF4" s="111">
         <f>4669/12814</f>
         <v>0.36436709848603088</v>
       </c>
-      <c r="AE4" s="121">
+      <c r="AG4" s="121">
         <v>1E-3</v>
       </c>
-      <c r="AF4" s="139">
+      <c r="AH4" s="139">
         <v>4</v>
       </c>
-      <c r="AG4" s="132">
+      <c r="AI4" s="132">
         <v>290654659</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AK4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AJ4" s="114">
+      <c r="AL4" s="114">
         <v>0.1</v>
       </c>
-      <c r="AK4" s="93"/>
+      <c r="AM4" s="93"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A5" s="149"/>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="154"/>
       <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
@@ -2182,106 +2332,112 @@
       <c r="E5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="149" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="22">
         <v>1.1819999999999999</v>
       </c>
-      <c r="G5" s="36">
+      <c r="I5" s="36">
         <v>5351.5</v>
       </c>
-      <c r="H5" s="40">
+      <c r="J5" s="40">
         <v>10</v>
       </c>
-      <c r="I5" s="29">
-        <f>G5*H5*F5</f>
+      <c r="K5" s="29">
+        <f>I5*J5*H5</f>
         <v>63254.729999999996</v>
       </c>
-      <c r="J5" s="32">
+      <c r="L5" s="32">
         <v>0.5</v>
       </c>
-      <c r="K5" s="61">
+      <c r="M5" s="61">
         <f t="shared" si="0"/>
         <v>9.3431748108007095E-5</v>
       </c>
-      <c r="L5" s="32">
-        <f>2*F5</f>
+      <c r="N5" s="32">
+        <f>2*H5</f>
         <v>2.3639999999999999</v>
       </c>
-      <c r="M5" s="61">
+      <c r="O5" s="61">
         <f t="shared" si="1"/>
         <v>3.7372699243202844E-5</v>
       </c>
-      <c r="N5" s="68">
+      <c r="P5" s="68">
         <v>0.189</v>
       </c>
-      <c r="O5" s="24">
+      <c r="Q5" s="24">
         <f t="shared" si="2"/>
         <v>176366.84303350971</v>
       </c>
-      <c r="P5" s="69">
+      <c r="R5" s="69">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="40">
+      <c r="S5" s="25"/>
+      <c r="T5" s="40">
         <v>1</v>
       </c>
-      <c r="S5" s="29">
-        <f>G5*R5*F5</f>
+      <c r="U5" s="29">
+        <f>I5*T5*H5</f>
         <v>6325.473</v>
       </c>
-      <c r="T5" s="92"/>
-      <c r="U5" s="100">
-        <f>0.3*F5</f>
+      <c r="V5" s="92"/>
+      <c r="W5" s="100">
+        <f>0.3*H5</f>
         <v>0.35459999999999997</v>
       </c>
-      <c r="V5" s="105">
-        <f t="shared" ref="V5:V7" si="5">U5*H5/R5</f>
+      <c r="X5" s="105">
+        <f>W5*J5/T5</f>
         <v>3.5459999999999998</v>
       </c>
-      <c r="W5" s="24">
+      <c r="Y5" s="24">
         <f t="shared" si="4"/>
         <v>17636.684303350972</v>
       </c>
-      <c r="Y5" s="117" t="s">
+      <c r="AA5" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="Z5" s="112" t="s">
+      <c r="AB5" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="AA5" s="113" t="s">
+      <c r="AC5" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="AB5" s="93" t="s">
+      <c r="AD5" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="AC5" s="134">
+      <c r="AE5" s="134">
         <v>165198503</v>
       </c>
-      <c r="AD5" s="114">
+      <c r="AF5" s="114">
         <v>0.39150000000000001</v>
       </c>
-      <c r="AE5" s="121">
+      <c r="AG5" s="121">
         <v>1E-3</v>
       </c>
-      <c r="AF5" s="139">
+      <c r="AH5" s="139">
         <v>4</v>
       </c>
-      <c r="AG5" s="132">
+      <c r="AI5" s="132">
         <v>290652011</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AK5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AJ5" s="114">
+      <c r="AL5" s="114">
         <v>0.1</v>
       </c>
-      <c r="AK5" s="93"/>
+      <c r="AM5" s="93"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A6" s="149"/>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="154"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2294,82 +2450,88 @@
       <c r="E6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="149" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="22">
         <v>111.85</v>
       </c>
-      <c r="G6" s="36">
+      <c r="I6" s="36">
         <v>21240</v>
       </c>
-      <c r="H6" s="40">
+      <c r="J6" s="40">
         <v>100</v>
       </c>
-      <c r="I6" s="29">
-        <f>G6*H6/F6</f>
+      <c r="K6" s="29">
+        <f>I6*J6/H6</f>
         <v>18989.718372820742</v>
       </c>
-      <c r="J6" s="32">
+      <c r="L6" s="32">
         <v>5</v>
       </c>
-      <c r="K6" s="61">
+      <c r="M6" s="61">
         <f t="shared" si="0"/>
         <v>2.3540489642184556E-4</v>
       </c>
-      <c r="L6" s="32">
-        <f>40/F6</f>
+      <c r="N6" s="32">
+        <f>40/H6</f>
         <v>0.35762181493071077</v>
       </c>
-      <c r="M6" s="61">
+      <c r="O6" s="61">
         <f t="shared" si="1"/>
         <v>1.8832391713747646E-5</v>
       </c>
-      <c r="N6" s="68">
+      <c r="P6" s="68">
         <v>0.20150000000000001</v>
       </c>
-      <c r="O6" s="24">
+      <c r="Q6" s="24">
         <f t="shared" si="2"/>
         <v>165425.97187758479</v>
       </c>
-      <c r="P6" s="69">
+      <c r="R6" s="69">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="40">
+      <c r="S6" s="25"/>
+      <c r="T6" s="40">
         <v>100</v>
       </c>
-      <c r="S6" s="29">
-        <f>G6*R6/F6</f>
+      <c r="U6" s="29">
+        <f>I6*T6/H6</f>
         <v>18989.718372820742</v>
       </c>
-      <c r="T6" s="92"/>
-      <c r="U6" s="100">
-        <f>40/F6</f>
+      <c r="V6" s="92"/>
+      <c r="W6" s="100">
+        <f>40/H6</f>
         <v>0.35762181493071077</v>
       </c>
-      <c r="V6" s="105">
-        <f t="shared" si="5"/>
+      <c r="X6" s="105">
+        <f>W6*J6/T6</f>
         <v>0.35762181493071077</v>
       </c>
-      <c r="W6" s="24">
+      <c r="Y6" s="24">
         <f t="shared" si="4"/>
         <v>165425.97187758479</v>
       </c>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="110"/>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="93"/>
-      <c r="AC6" s="134"/>
-      <c r="AD6" s="115"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="139"/>
-      <c r="AG6" s="132"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="114"/>
-      <c r="AK6" s="93"/>
+      <c r="AA6" s="117"/>
+      <c r="AB6" s="110"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="134"/>
+      <c r="AF6" s="115"/>
+      <c r="AG6" s="122"/>
+      <c r="AH6" s="139"/>
+      <c r="AI6" s="132"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="93"/>
     </row>
-    <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="150"/>
+    <row r="7" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="155"/>
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -2382,108 +2544,114 @@
       <c r="E7" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="150" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="150" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="44">
         <v>7.8</v>
       </c>
-      <c r="G7" s="45">
+      <c r="I7" s="45">
         <v>28476</v>
       </c>
-      <c r="H7" s="46">
+      <c r="J7" s="46">
         <v>10</v>
       </c>
-      <c r="I7" s="47">
-        <f>G7*H7/F7</f>
+      <c r="K7" s="47">
+        <f>I7*J7/H7</f>
         <v>36507.692307692305</v>
       </c>
-      <c r="J7" s="48">
+      <c r="L7" s="48">
         <v>1</v>
       </c>
-      <c r="K7" s="62">
+      <c r="M7" s="62">
         <f t="shared" si="0"/>
         <v>3.5117291754459895E-5</v>
       </c>
-      <c r="L7" s="48">
-        <f>17/F7</f>
+      <c r="N7" s="48">
+        <f>17/H7</f>
         <v>2.1794871794871797</v>
       </c>
-      <c r="M7" s="62">
+      <c r="O7" s="62">
         <f t="shared" si="1"/>
         <v>5.9699395982581833E-5</v>
       </c>
-      <c r="N7" s="86">
+      <c r="P7" s="86">
         <v>0.185</v>
       </c>
-      <c r="O7" s="87">
+      <c r="Q7" s="87">
         <f t="shared" si="2"/>
         <v>180180.18018018021</v>
       </c>
-      <c r="P7" s="88">
+      <c r="R7" s="88">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="46">
+      <c r="S7" s="25"/>
+      <c r="T7" s="46">
         <v>1</v>
       </c>
-      <c r="S7" s="47">
-        <f>G7*R7/F7</f>
+      <c r="U7" s="47">
+        <f>I7*T7/H7</f>
         <v>3650.7692307692309</v>
       </c>
-      <c r="T7" s="96"/>
-      <c r="U7" s="101">
-        <f>1/F7</f>
+      <c r="V7" s="96"/>
+      <c r="W7" s="101">
+        <f>1/H7</f>
         <v>0.12820512820512822</v>
       </c>
-      <c r="V7" s="106">
-        <f t="shared" si="5"/>
+      <c r="X7" s="106">
+        <f>W7*J7/T7</f>
         <v>1.2820512820512822</v>
       </c>
-      <c r="W7" s="87">
+      <c r="Y7" s="87">
         <f t="shared" si="4"/>
         <v>18018.018018018021</v>
       </c>
-      <c r="Y7" s="146">
+      <c r="AA7" s="146">
         <v>2833</v>
       </c>
-      <c r="Z7" s="123" t="s">
+      <c r="AB7" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="AA7" s="124" t="s">
+      <c r="AC7" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="AB7" s="131" t="s">
+      <c r="AD7" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="AC7" s="135">
+      <c r="AE7" s="135">
         <v>42474938</v>
       </c>
-      <c r="AD7" s="125">
+      <c r="AF7" s="125">
         <f>37167/200000</f>
         <v>0.185835</v>
       </c>
-      <c r="AE7" s="126">
+      <c r="AG7" s="126">
         <f>160/200000</f>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="AF7" s="126" t="s">
+      <c r="AH7" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="AG7" s="132">
+      <c r="AI7" s="132">
         <v>290654600</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AK7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AJ7" s="114">
+      <c r="AL7" s="114">
         <v>0.1</v>
       </c>
-      <c r="AK7" s="93"/>
+      <c r="AM7" s="93"/>
     </row>
-    <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="151" t="s">
+    <row r="8" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="156" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="54" t="s">
@@ -2498,99 +2666,105 @@
       <c r="E8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="148" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="148" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="21">
         <v>1</v>
       </c>
-      <c r="G8" s="35">
+      <c r="I8" s="35">
         <v>125.24</v>
       </c>
-      <c r="H8" s="39">
+      <c r="J8" s="39">
         <v>1000</v>
       </c>
-      <c r="I8" s="28">
-        <f t="shared" ref="I8:I10" si="6">G8*H8*F8</f>
+      <c r="K8" s="28">
+        <f>I8*J8*H8</f>
         <v>125240</v>
       </c>
-      <c r="J8" s="55">
+      <c r="L8" s="55">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K8" s="63">
+      <c r="M8" s="63">
         <f t="shared" si="0"/>
         <v>3.9923347173427021E-5</v>
       </c>
-      <c r="L8" s="83">
+      <c r="N8" s="83">
         <v>1.61</v>
       </c>
-      <c r="M8" s="63">
+      <c r="O8" s="63">
         <f t="shared" si="1"/>
         <v>1.28553177898435E-5</v>
       </c>
-      <c r="N8" s="65">
+      <c r="P8" s="65">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="O8" s="66">
+      <c r="Q8" s="66">
         <f t="shared" si="2"/>
         <v>628930.81761006301</v>
       </c>
-      <c r="P8" s="67">
+      <c r="R8" s="67">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="28">
-        <f t="shared" ref="S8:S15" si="7">G8*R8*F8</f>
+      <c r="S8" s="25"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="28">
+        <f t="shared" ref="U8:U15" si="5">I8*T8*H8</f>
         <v>0</v>
       </c>
-      <c r="T8" s="90"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="66">
+      <c r="V8" s="90"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="66">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="117" t="s">
+      <c r="AA8" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="Z8" s="147" t="s">
+      <c r="AB8" s="147" t="s">
         <v>117</v>
       </c>
-      <c r="AA8" s="113" t="s">
+      <c r="AC8" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="AB8" s="93" t="s">
+      <c r="AD8" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="AC8" s="147">
+      <c r="AE8" s="147">
         <v>15547844</v>
       </c>
-      <c r="AD8" s="111">
+      <c r="AF8" s="111">
         <f>628/2505</f>
         <v>0.2506986027944112</v>
       </c>
-      <c r="AE8" s="127">
+      <c r="AG8" s="127">
         <f>5/25050</f>
         <v>1.996007984031936E-4</v>
       </c>
-      <c r="AF8" s="140" t="s">
+      <c r="AH8" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="AG8" s="147">
+      <c r="AI8" s="147">
         <v>134770775</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AK8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AJ8" s="114">
+      <c r="AL8" s="114">
         <v>0.1</v>
       </c>
-      <c r="AK8" s="93"/>
+      <c r="AM8" s="93"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A9" s="152"/>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="157"/>
       <c r="B9" s="56" t="s">
         <v>31</v>
       </c>
@@ -2603,100 +2777,106 @@
       <c r="E9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="149" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="149" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="22">
         <v>1.3280000000000001</v>
       </c>
-      <c r="G9" s="36">
+      <c r="I9" s="36">
         <v>123.78</v>
       </c>
-      <c r="H9" s="40">
+      <c r="J9" s="40">
         <v>1000</v>
       </c>
-      <c r="I9" s="29">
-        <f t="shared" si="6"/>
+      <c r="K9" s="29">
+        <f>I9*J9*H9</f>
         <v>164379.84</v>
       </c>
-      <c r="J9" s="32">
+      <c r="L9" s="32">
         <v>0.01</v>
       </c>
-      <c r="K9" s="61">
+      <c r="M9" s="61">
         <f t="shared" si="0"/>
         <v>8.0788495718209726E-5</v>
       </c>
-      <c r="L9" s="84">
-        <f>1.71*F9</f>
+      <c r="N9" s="84">
+        <f>1.71*H9</f>
         <v>2.27088</v>
       </c>
-      <c r="M9" s="61">
+      <c r="O9" s="61">
         <f t="shared" si="1"/>
         <v>1.3814832767813863E-5</v>
       </c>
-      <c r="N9" s="68">
+      <c r="P9" s="68">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="O9" s="24">
+      <c r="Q9" s="24">
         <f t="shared" si="2"/>
         <v>512820.51282051281</v>
       </c>
-      <c r="P9" s="69">
+      <c r="R9" s="69">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="29">
-        <f t="shared" si="7"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="29">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T9" s="92"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="24">
+      <c r="V9" s="92"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="117" t="s">
+      <c r="AA9" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="Z9" s="112" t="s">
+      <c r="AB9" s="112" t="s">
         <v>94</v>
       </c>
-      <c r="AA9" s="113" t="s">
+      <c r="AC9" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="AB9" s="93" t="s">
+      <c r="AD9" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="AC9" s="134">
+      <c r="AE9" s="134">
         <v>42725180</v>
       </c>
-      <c r="AD9" s="111">
+      <c r="AF9" s="111">
         <f>53407/100000</f>
         <v>0.53407000000000004</v>
       </c>
-      <c r="AE9" s="127">
+      <c r="AG9" s="127">
         <f>29/100000</f>
         <v>2.9E-4</v>
       </c>
-      <c r="AF9" s="141">
+      <c r="AH9" s="141">
         <v>6</v>
       </c>
-      <c r="AG9" s="134">
+      <c r="AI9" s="134">
         <v>290654651</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AJ9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AI9" s="2" t="s">
+      <c r="AK9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AJ9" s="114">
+      <c r="AL9" s="114">
         <v>0.1</v>
       </c>
-      <c r="AK9" s="93"/>
+      <c r="AM9" s="93"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A10" s="153"/>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="158"/>
       <c r="B10" s="57" t="s">
         <v>35</v>
       </c>
@@ -2709,92 +2889,98 @@
       <c r="E10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="149" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="149" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="22">
         <v>1.1819999999999999</v>
       </c>
-      <c r="G10" s="36">
+      <c r="I10" s="36">
         <v>161.44999999999999</v>
       </c>
-      <c r="H10" s="40">
+      <c r="J10" s="40">
         <v>1000</v>
       </c>
-      <c r="I10" s="29">
-        <f t="shared" si="6"/>
+      <c r="K10" s="29">
+        <f>I10*J10*H10</f>
         <v>190833.9</v>
       </c>
-      <c r="J10" s="32">
+      <c r="L10" s="32">
         <v>0.01</v>
       </c>
-      <c r="K10" s="61">
+      <c r="M10" s="61">
         <f t="shared" si="0"/>
         <v>6.1938680706100972E-5</v>
       </c>
-      <c r="L10" s="84">
-        <f>2*F10</f>
+      <c r="N10" s="84">
+        <f>2*H10</f>
         <v>2.3639999999999999</v>
       </c>
-      <c r="M10" s="61">
+      <c r="O10" s="61">
         <f t="shared" si="1"/>
         <v>1.2387736141220191E-5</v>
       </c>
-      <c r="N10" s="68">
+      <c r="P10" s="68">
         <v>5.9799999999999999E-2</v>
       </c>
-      <c r="O10" s="24">
+      <c r="Q10" s="24">
         <f t="shared" si="2"/>
         <v>557413.60089186183</v>
       </c>
-      <c r="P10" s="69">
+      <c r="R10" s="69">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="29">
-        <f t="shared" si="7"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="29">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T10" s="92"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="24">
+      <c r="V10" s="92"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="145" t="s">
+      <c r="AA10" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="Z10" s="112" t="s">
+      <c r="AB10" s="112" t="s">
         <v>98</v>
       </c>
-      <c r="AA10" s="113" t="s">
+      <c r="AC10" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="AB10" s="93" t="s">
+      <c r="AD10" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="AC10" s="134">
+      <c r="AE10" s="134">
         <v>106659028</v>
       </c>
-      <c r="AD10" s="111">
+      <c r="AF10" s="111">
         <f>277/238</f>
         <v>1.1638655462184875</v>
       </c>
-      <c r="AE10" s="128">
+      <c r="AG10" s="128">
         <v>1E-3</v>
       </c>
-      <c r="AF10" s="139">
+      <c r="AH10" s="139">
         <v>4</v>
       </c>
-      <c r="AG10" s="92" t="e">
+      <c r="AI10" s="92" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
-      <c r="AK10" s="93"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="93"/>
     </row>
-    <row r="11" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="42"/>
       <c r="B11" s="82" t="s">
         <v>34</v>
@@ -2808,74 +2994,80 @@
       <c r="E11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="151" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="151" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="23">
         <v>111.85</v>
       </c>
-      <c r="G11" s="38">
+      <c r="I11" s="38">
         <v>150.44</v>
       </c>
-      <c r="H11" s="41">
+      <c r="J11" s="41">
         <v>100000</v>
       </c>
-      <c r="I11" s="30">
-        <f>G11*H11/F11</f>
+      <c r="K11" s="30">
+        <f>I11*J11/H11</f>
         <v>134501.56459544032</v>
       </c>
-      <c r="J11" s="33">
+      <c r="L11" s="33">
         <v>0.01</v>
       </c>
-      <c r="K11" s="64">
+      <c r="M11" s="64">
         <f t="shared" si="0"/>
         <v>6.6471683063015161E-5</v>
       </c>
-      <c r="L11" s="85">
-        <f>85/F11</f>
+      <c r="N11" s="85">
+        <f>85/H11</f>
         <v>0.75994635672776045</v>
       </c>
-      <c r="M11" s="64">
+      <c r="O11" s="64">
         <f t="shared" si="1"/>
         <v>5.6500930603562893E-6</v>
       </c>
-      <c r="N11" s="70">
+      <c r="P11" s="70">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="O11" s="71">
+      <c r="Q11" s="71">
         <f t="shared" si="2"/>
         <v>1587301.5873015872</v>
       </c>
-      <c r="P11" s="72">
-        <f t="shared" si="3"/>
+      <c r="R11" s="72">
+        <f>FLOOR(Q11/K11,1)</f>
         <v>11</v>
       </c>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="30">
-        <f t="shared" si="7"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="30">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T11" s="94"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="71">
+      <c r="V11" s="94"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="117"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="140"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
+      <c r="AA11" s="117"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="140"/>
+      <c r="AI11" s="92"/>
       <c r="AJ11" s="2"/>
-      <c r="AK11" s="93"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="93"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A12" s="154" t="s">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="159" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2890,103 +3082,109 @@
       <c r="E12" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="152" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="50">
         <v>1</v>
       </c>
-      <c r="G12" s="51">
+      <c r="I12" s="51">
         <v>51.674999999999997</v>
       </c>
-      <c r="H12" s="52">
+      <c r="J12" s="52">
         <v>500</v>
       </c>
-      <c r="I12" s="53">
-        <f t="shared" ref="I12:I15" si="8">G12*H12/F12</f>
+      <c r="K12" s="53">
+        <f>I12*J12/H12</f>
         <v>25837.5</v>
       </c>
-      <c r="J12" s="31">
+      <c r="L12" s="31">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K12" s="60">
+      <c r="M12" s="60">
         <f t="shared" si="0"/>
         <v>4.8379293662312534E-4</v>
       </c>
-      <c r="L12" s="31">
+      <c r="N12" s="31">
         <v>2.06</v>
       </c>
-      <c r="M12" s="60">
+      <c r="O12" s="60">
         <f t="shared" si="1"/>
         <v>7.9729075955491051E-5</v>
       </c>
-      <c r="N12" s="74">
+      <c r="P12" s="74">
         <v>0.29799999999999999</v>
       </c>
-      <c r="O12" s="75">
+      <c r="Q12" s="75">
         <f t="shared" si="2"/>
         <v>111856.82326621925</v>
       </c>
-      <c r="P12" s="76">
+      <c r="R12" s="76">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="52">
+      <c r="S12" s="25"/>
+      <c r="T12" s="52">
         <v>100</v>
       </c>
-      <c r="S12" s="53">
-        <f t="shared" si="7"/>
+      <c r="U12" s="53">
+        <f t="shared" si="5"/>
         <v>5167.5</v>
       </c>
-      <c r="T12" s="97"/>
-      <c r="U12" s="102" t="s">
+      <c r="V12" s="97"/>
+      <c r="W12" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="V12" s="98"/>
-      <c r="W12" s="75">
+      <c r="X12" s="98"/>
+      <c r="Y12" s="75">
         <f t="shared" si="4"/>
         <v>22371.364653243851</v>
       </c>
-      <c r="Y12" s="117" t="s">
+      <c r="AA12" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="Z12" s="112" t="s">
+      <c r="AB12" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="AA12" s="113" t="s">
+      <c r="AC12" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="AB12" s="93" t="s">
+      <c r="AD12" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="AC12" s="134">
+      <c r="AE12" s="134">
         <v>38590758</v>
       </c>
-      <c r="AD12" s="111">
+      <c r="AF12" s="111">
         <f>27169/108000</f>
         <v>0.2515648148148148</v>
       </c>
-      <c r="AE12" s="128">
+      <c r="AG12" s="128">
         <f>45/108000</f>
         <v>4.1666666666666669E-4</v>
       </c>
-      <c r="AF12" s="140" t="s">
+      <c r="AH12" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="AG12" s="134">
+      <c r="AI12" s="134">
         <v>134771093</v>
       </c>
-      <c r="AH12" s="2" t="s">
+      <c r="AJ12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AI12" s="2" t="s">
+      <c r="AK12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AJ12" s="114">
+      <c r="AL12" s="114">
         <v>0.1</v>
       </c>
-      <c r="AK12" s="93"/>
+      <c r="AM12" s="93"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A13" s="155"/>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="160"/>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2999,103 +3197,109 @@
       <c r="E13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="149" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="149" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="22">
         <v>1</v>
       </c>
-      <c r="G13" s="36">
+      <c r="I13" s="36">
         <v>1306.3</v>
       </c>
-      <c r="H13" s="40">
+      <c r="J13" s="40">
         <v>10</v>
       </c>
-      <c r="I13" s="29">
-        <f t="shared" si="8"/>
+      <c r="K13" s="29">
+        <f>I13*J13/H13</f>
         <v>13063</v>
       </c>
-      <c r="J13" s="32">
+      <c r="L13" s="32">
         <v>0.1</v>
       </c>
-      <c r="K13" s="61">
+      <c r="M13" s="61">
         <f t="shared" si="0"/>
         <v>7.6552093699762692E-5</v>
       </c>
-      <c r="L13" s="32">
+      <c r="N13" s="32">
         <v>1.06</v>
       </c>
-      <c r="M13" s="61">
+      <c r="O13" s="61">
         <f t="shared" si="1"/>
         <v>8.1145219321748449E-5</v>
       </c>
-      <c r="N13" s="68">
+      <c r="P13" s="68">
         <v>0.17799999999999999</v>
       </c>
-      <c r="O13" s="24">
+      <c r="Q13" s="24">
         <f t="shared" si="2"/>
         <v>187265.91760299628</v>
       </c>
-      <c r="P13" s="69">
+      <c r="R13" s="69">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="40">
+      <c r="S13" s="25"/>
+      <c r="T13" s="40">
         <v>1</v>
       </c>
-      <c r="S13" s="29">
-        <f t="shared" si="7"/>
+      <c r="U13" s="29">
+        <f t="shared" si="5"/>
         <v>1306.3</v>
       </c>
-      <c r="T13" s="92"/>
-      <c r="U13" s="103">
+      <c r="V13" s="92"/>
+      <c r="W13" s="103">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="V13" s="93"/>
-      <c r="W13" s="24">
+      <c r="X13" s="93"/>
+      <c r="Y13" s="24">
         <f t="shared" si="4"/>
         <v>18726.591760299627</v>
       </c>
-      <c r="Y13" s="117" t="s">
+      <c r="AA13" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="Z13" s="112" t="s">
+      <c r="AB13" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="AA13" s="113" t="s">
+      <c r="AC13" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="AB13" s="130" t="s">
+      <c r="AD13" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="AC13" s="132">
+      <c r="AE13" s="132">
         <v>51529211</v>
       </c>
-      <c r="AD13" s="111">
+      <c r="AF13" s="111">
         <f>30254/100000</f>
         <v>0.30253999999999998</v>
       </c>
-      <c r="AE13" s="129">
+      <c r="AG13" s="129">
         <f>4.5/100000</f>
         <v>4.5000000000000003E-5</v>
       </c>
-      <c r="AF13" s="140" t="s">
+      <c r="AH13" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="AG13" s="134">
+      <c r="AI13" s="134">
         <v>134771924</v>
       </c>
-      <c r="AH13" s="2" t="s">
+      <c r="AJ13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AI13" s="2" t="s">
+      <c r="AK13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AJ13" s="114">
+      <c r="AL13" s="114">
         <v>0.1</v>
       </c>
-      <c r="AK13" s="93"/>
+      <c r="AM13" s="93"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A14" s="155"/>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="160"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -3108,91 +3312,97 @@
       <c r="E14" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="149" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="149" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="22">
         <v>1</v>
       </c>
-      <c r="G14" s="37">
+      <c r="I14" s="37">
         <v>3.13</v>
       </c>
-      <c r="H14" s="40">
+      <c r="J14" s="40">
         <v>12500</v>
       </c>
-      <c r="I14" s="29">
-        <f t="shared" si="8"/>
+      <c r="K14" s="29">
+        <f>I14*J14/H14</f>
         <v>39125</v>
       </c>
-      <c r="J14" s="32">
+      <c r="L14" s="32">
         <v>2E-3</v>
       </c>
-      <c r="K14" s="61">
+      <c r="M14" s="61">
         <f t="shared" si="0"/>
         <v>6.3897763578274762E-4</v>
       </c>
-      <c r="L14" s="32">
+      <c r="N14" s="32">
         <v>1.61</v>
       </c>
-      <c r="M14" s="61">
+      <c r="O14" s="61">
         <f t="shared" si="1"/>
         <v>4.1150159744408948E-5</v>
       </c>
-      <c r="N14" s="68">
+      <c r="P14" s="68">
         <v>0.22370000000000001</v>
       </c>
-      <c r="O14" s="24">
+      <c r="Q14" s="24">
         <f t="shared" si="2"/>
         <v>149009.08955446281</v>
       </c>
-      <c r="P14" s="69">
+      <c r="R14" s="69">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="29">
-        <f t="shared" si="7"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="29">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T14" s="92"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="24">
+      <c r="V14" s="92"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="117" t="s">
+      <c r="AA14" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="Z14" s="110" t="s">
+      <c r="AB14" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="AA14" s="113" t="s">
+      <c r="AC14" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="AB14" s="93" t="s">
+      <c r="AD14" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="AC14" s="134">
+      <c r="AE14" s="134">
         <v>46943351</v>
       </c>
-      <c r="AD14" s="111">
+      <c r="AF14" s="111">
         <f>8848/30000</f>
         <v>0.29493333333333333</v>
       </c>
-      <c r="AE14" s="129">
+      <c r="AG14" s="129">
         <f>4.5/30000</f>
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="AF14" s="140" t="s">
+      <c r="AH14" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
+      <c r="AI14" s="92"/>
       <c r="AJ14" s="2"/>
-      <c r="AK14" s="93"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="93"/>
     </row>
-    <row r="15" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="156"/>
+    <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="161"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
@@ -3205,99 +3415,105 @@
       <c r="E15" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="151" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="151" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="23">
         <v>1</v>
       </c>
-      <c r="G15" s="38">
+      <c r="I15" s="38">
         <v>1.2635000000000001</v>
       </c>
-      <c r="H15" s="41">
+      <c r="J15" s="41">
         <v>37500</v>
       </c>
-      <c r="I15" s="30">
-        <f t="shared" si="8"/>
+      <c r="K15" s="30">
+        <f>I15*J15/H15</f>
         <v>47381.25</v>
       </c>
-      <c r="J15" s="33">
+      <c r="L15" s="33">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K15" s="64">
-        <f>J15/G15</f>
+      <c r="M15" s="64">
+        <f>L15/I15</f>
         <v>3.9572615749901069E-4</v>
       </c>
-      <c r="L15" s="33">
+      <c r="N15" s="33">
         <v>2.96</v>
       </c>
-      <c r="M15" s="64">
+      <c r="O15" s="64">
         <f t="shared" si="1"/>
         <v>6.2471969397177147E-5</v>
       </c>
-      <c r="N15" s="70">
+      <c r="P15" s="70">
         <v>0.29799999999999999</v>
       </c>
-      <c r="O15" s="71">
+      <c r="Q15" s="71">
         <f t="shared" si="2"/>
         <v>111856.82326621925</v>
       </c>
-      <c r="P15" s="72">
+      <c r="R15" s="72">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="30">
-        <f t="shared" si="7"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="30">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T15" s="94"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="71">
+      <c r="V15" s="94"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="118" t="s">
+      <c r="AA15" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="Z15" s="119" t="s">
+      <c r="AB15" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="AA15" s="5" t="s">
+      <c r="AC15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AB15" s="95" t="s">
+      <c r="AD15" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="AC15" s="136">
+      <c r="AE15" s="136">
         <v>52175837</v>
       </c>
-      <c r="AD15" s="137">
+      <c r="AF15" s="137">
         <f>40855/100000</f>
         <v>0.40855000000000002</v>
       </c>
-      <c r="AE15" s="138">
+      <c r="AG15" s="138">
         <f>45/100000</f>
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="AF15" s="142" t="s">
+      <c r="AH15" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="AG15" s="94"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
+      <c r="AI15" s="94"/>
       <c r="AJ15" s="5"/>
-      <c r="AK15" s="95"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="95"/>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J18" s="26"/>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="R1:W1"/>
-    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="AA1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Sigmaa005/List of tradable instruments.xlsx
+++ b/Sigmaa005/List of tradable instruments.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1904,7 +1903,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10:D10"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
